--- a/Odrive motor testing procedure/Motor Data/Odrive D5065 270kv/Motor_efficiency_data_handler.xlsx
+++ b/Odrive motor testing procedure/Motor Data/Odrive D5065 270kv/Motor_efficiency_data_handler.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Torque Constant" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Input voltage</t>
   </si>
@@ -121,6 +122,12 @@
   <si>
     <t>N.m</t>
   </si>
+  <si>
+    <t>Line q-axis current</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -181,6 +188,2290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>D5065 Motor current vs torque</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3732706703935242E-2"/>
+          <c:y val="1.4897579143389199E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Torque Constant'!$A$3:$A$346</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="344"/>
+                <c:pt idx="0">
+                  <c:v>1.5954896330833399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2523346900939902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.236376953124999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.006655311584399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.022525787353501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.1712598800659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.518431854248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.933378601074203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.217210769653299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.95163453221321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9110350608825604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.157800579071001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.294729232788001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.239873123168898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.386850929260198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.632703018188401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.060219192504803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.818592834472597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.84734503626823</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0732965946197499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.826434135436999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.502722930908199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.188113784790001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.879873847961399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.604373168945301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.293078231811499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.873586654663001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.51650396585464</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.89802269935607</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.2194314956665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.396364212036101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.474915885925199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.653612518310499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.865334701538004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.401649856567303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.109191513061504</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4014473438262902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.84922451972961</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.1363920211792</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.725949859619099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.609956932067799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.494419860839798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.199468612670898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.281327438354403</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.032682037353503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5746302902698499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.8708249568939204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.679168033599799</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.879877471923798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.166786384582501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.531791114807099</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.996300125121998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44.525421142578097</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51.373775100708002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7326377987861599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3672252655029293</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.0646200180053</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.283733367919901</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.4961992263793</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.235615348815902</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37.728811645507797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.668098068237299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.696149444580001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.88736026287078</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.3758528232574392</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.6579906463623</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.827187919616598</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.428113555908201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31.820109367370598</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38.287206268310499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.014538955688401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.3899417877197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5461522459983801</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2231778144836394</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.642719173431299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.447377204895002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.459407043456999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.490037155151299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38.681756973266602</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.634686660766597</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51.572779464721599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9916409134864801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.4685111522674497</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.4781970024108</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.627900695800701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.2627159118652</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32.074231529235803</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.971031570434498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45.135969543457001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.964103698730398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.5991145491599998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.4319188594818097</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.380159664154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.591415023803702</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.5239828109741</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31.916983413696201</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38.157798385620097</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44.257460021972598</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>52.119551849365202</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.70457048416137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.0125042438506995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.8698417663574</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.3625392913818</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.436617088317799</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>31.373127555847098</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.4092098236084</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.846636581420803</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>51.037544631957999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.4771156191825798</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.55670118331909</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13.223483753204301</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19.7044729232788</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25.698126411437901</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32.149254226684498</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.880427932739202</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.251492691039999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>51.1935005187988</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.08253648281097</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.1005426883697496</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.243582344055101</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19.435478210449201</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>26.0163728713989</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>32.390002632141098</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>38.313607025146403</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44.709372329711897</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51.661222839355403</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.0775067687034601</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.1813080310821498</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.341664028167701</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19.219814872741701</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>25.3442676544189</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>31.535760116577102</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>38.666870880126901</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44.447903442382803</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>50.864583587646401</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.1682004094123801</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.2319414615631104</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.611790561676001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>19.223196220397899</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>25.046761131286601</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>31.822155570983799</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>37.604136657714797</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44.072329711914001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>51.0941162109375</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.81135337352752</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.0899815082550006</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.1425246238708</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>19.452188682556098</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>25.2210840225219</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31.5479169845581</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>37.868229675292902</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44.553020858764597</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>51.733390808105398</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.8365988492965699</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.7570178508758501</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>13.441576004028301</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>18.664218139648401</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>25.530367279052701</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>31.500298690795798</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>38.2000099182128</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44.566487884521401</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>51.717520523071201</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.18454083204269</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.9031990051269503</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13.2530973434448</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>19.253755378723099</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25.376324653625399</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>31.6080722808837</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>38.036515045165999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44.354063034057603</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>51.478115081787102</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.9814767658710399</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.0024809360504108</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>13.3253276824951</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>19.1599161148071</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>25.597667503356899</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>31.327714347839301</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>38.138460540771398</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44.298778915405201</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>51.971815490722598</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.21577243804931</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.1891742706298798</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13.1175941467285</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>19.400523185729899</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>25.444916915893501</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>31.201260566711401</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>37.885020828247001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44.280942153930603</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51.4906513214111</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.61131266355514</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6373187065124499</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13.052257728576601</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.6595197677612</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>25.515898704528801</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>30.6837404251098</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>38.191793441772397</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44.307873916625901</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>51.776265335083004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.9216160655021599</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.1517302036285404</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>13.3599998474121</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>19.424415969848599</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>26.165722846984799</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>31.643744277954099</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>38.052079391479403</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45.644873046874999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>52.415024185180599</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.6546473264694199</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7.6177417278289798</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13.747080802917401</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>19.8378343582153</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>25.183693504333402</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31.849512100219702</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>38.382607269287099</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44.623510742187499</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>51.471494674682603</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.52891591787338</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7.90201358795166</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13.4661845207214</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>19.889719963073698</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>25.3346200942993</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>31.751463508605902</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>37.575839996337798</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44.895296859741201</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>51.563835906982398</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.01488052606582</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7.46567864418029</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>13.4466550827026</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19.3872890472412</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>25.9694625854492</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>32.021209907531698</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>38.0896884918212</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44.987758636474602</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>52.480601501464797</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.05469444990158</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.6149119853973302</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>13.066870880126899</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>19.110481262206999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26.133615303039502</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>31.8770641326904</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>38.028489303588799</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>44.9289249420166</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>52.737724685668901</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.3410612523555701</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7.5003531932830798</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>13.7072351455688</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>19.0366104125976</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>25.1804286956787</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>32.328997039794899</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>37.4407356262207</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.306520462036097</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>50.4382507324218</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.74940415620803</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7.4173573493957496</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>13.4908762931823</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19.129040718078599</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25.4033897399902</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>31.3873485565185</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>38.539725875854401</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44.915006256103503</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>51.7857048034668</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.51823633909225</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6.90318241119384</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.2543642997741</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>19.241281318664502</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>25.199941444396899</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>31.5112396240234</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>38.476871109008698</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>45.048365020751902</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>52.4179363250732</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.81121292114257804</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>7.3222807407379102</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>12.970313453674301</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>19.846467971801701</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>25.023841094970699</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>31.352765083312899</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>38.070734786987302</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44.229507446288999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>51.331751251220702</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.66432875990867</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>6.7665925979614201</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12.564974212646399</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>19.028604316711402</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>25.169454765319799</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>32.052253341674799</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>37.5125217437744</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44.422170257568297</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>52.2946269989013</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.39727857112884</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7.1935691356658902</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>13.897497844696</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>20.143778038024902</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25.794964599609301</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>31.013414382934499</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>36.658886718749997</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>45.013622283935497</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>53.881972503662098</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.4044841468334099</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.6630052089691096</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>12.716228866577101</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>19.656485176086399</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>25.377957153320299</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>31.125648307800201</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>37.759709548950198</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>45.502333831787098</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>51.7422058105468</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.90785010904073704</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>6.8190980911254799</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>13.389272022247299</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>18.965796947479198</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>25.695647239685002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>31.1804231643676</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>38.517926788330001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>45.515603256225504</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>51.741389846801702</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.19752286970615</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.4564056873321496</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>12.930550956726</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>18.977923011779701</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>25.127400779724098</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>31.772265052795401</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>38.7614952087402</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>45.545029449462803</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>51.160880279540997</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.10071605592966</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>7.5765869617462096</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>13.2445621490478</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>19.454062652587801</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>25.4606521606445</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>31.524619865417399</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>37.9541301727294</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>46.064746093750003</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>51.495906829833899</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.35781922638416</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.6616315603256204</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>13.5746785163879</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>19.978421974182101</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>25.0556114196777</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>32.147859573364201</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>38.918215179443301</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>46.218023300170898</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>51.4881290435791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Torque Constant'!$C$3:$C$346</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="344"/>
+                <c:pt idx="0">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72329999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90789999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.66E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1020999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2787999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4505999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2715999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4479000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1983</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37860000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2707999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4552</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.73209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2719</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4519000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.91160000000000008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2718</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.1976</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.37619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.55310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.73029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2725</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4519000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.55379999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7319</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0917000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2725</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4534</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.19640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.37689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.55270000000000008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.72929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91060000000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0900999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2712000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.55310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.73020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0900999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2702</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1953</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.37580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.55179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.72950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0892999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4515</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1956</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.37410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.55059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.72920000000000007</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2698</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4513</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.19739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.37630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.55210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.72989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0889000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.1951</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.3745</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.55220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.72870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.90749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.2694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4507000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.19640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.37480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.55110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.72789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.9073</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.0864</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4489000000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.1966</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.37510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.55189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.7288</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.90670000000000006</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.2697000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.4504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.19869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.3765</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.73020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.90989999999999993</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0904</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2702</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.4535</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.2006</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.3775</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.5542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.73280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.90970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0904</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.4502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.20030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.37639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.55349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.9113</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.0914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.4519000000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.37880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.55279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.73080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.91120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.0884</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.2705</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.4498</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.1993</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.3765</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.55489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.90960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.0894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.2702</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.4512</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.19650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.37589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.55589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.73429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.0925</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2730999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.4522999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.19440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.37680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.5534</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.73280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.9163</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.0966</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.2763</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.4535</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.19669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.37819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.55310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.92020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.0964</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.2766999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.4547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.2039</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.36230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.53420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.72929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.92210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.0920999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.2741</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.4535</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.2006</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.37889999999999996</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.54570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.72189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.91420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.1015999999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.2785</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.4572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.18930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.37189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.55349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.73320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.91520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.2842</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.4445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.1933</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.37330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.55279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.7367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.91139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.0895999999999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.2690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.4462999999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.18959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.37080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.54820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.72760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.90670000000000006</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.0880999999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.2645</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.4437</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.54670000000000007</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.72429999999999994</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.90479999999999994</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.0827</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.2619</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.4398</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.18680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.90160000000000007</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.0794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.2587999999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.4369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.18569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.72170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.89910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.0772999999999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.2549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.18340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.36419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.54259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.71989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.0752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.2549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.4335</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.36360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.54149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.71829999999999994</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.89539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.0732000000000002</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.2517</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.4295</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.18259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.36180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.53920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.7157</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.89229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.0709000000000002</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.2492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.3599</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.53660000000000008</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.71460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.89360000000000006</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.0712000000000002</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.2484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.427</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.17980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.35860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.53570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.71529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.89329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.0712000000000002</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.2487000000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.4254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137474048"/>
+        <c:axId val="137472256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137474048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> Test motor q-axis current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>  (A)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137472256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="137472256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> Output Torque (N.m)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1944755505785741E-2"/>
+              <c:y val="0.36568063070328499"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137474048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,11 +2764,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20903,7 +23212,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -28456,4 +30765,4839 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C344"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>input!F1</f>
+        <v xml:space="preserve"> Test motor q-axis current</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="str">
+        <f>input!J1</f>
+        <v xml:space="preserve"> Output Torque</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>input!F2</f>
+        <v xml:space="preserve"> A</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="str">
+        <f>input!J2</f>
+        <v xml:space="preserve"> N.mm</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>ABS(input!F3)</f>
+        <v>1.5954896330833399</v>
+      </c>
+      <c r="B3">
+        <f>SQRT(3)*A3</f>
+        <v>2.7634691074497706</v>
+      </c>
+      <c r="C3">
+        <f>ABS(input!J3)/1000</f>
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>ABS(input!F4)</f>
+        <v>7.2523346900939902</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">SQRT(3)*A4</f>
+        <v>12.561412156737079</v>
+      </c>
+      <c r="C4">
+        <f>ABS(input!J4)/1000</f>
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>ABS(input!F5)</f>
+        <v>13.236376953124999</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>22.926077390946229</v>
+      </c>
+      <c r="C5">
+        <f>ABS(input!J5)/1000</f>
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>ABS(input!F6)</f>
+        <v>19.006655311584399</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>32.920492681613048</v>
+      </c>
+      <c r="C6">
+        <f>ABS(input!J6)/1000</f>
+        <v>0.55420000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>ABS(input!F7)</f>
+        <v>25.022525787353501</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>43.340285997398688</v>
+      </c>
+      <c r="C7">
+        <f>ABS(input!J7)/1000</f>
+        <v>0.72329999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>ABS(input!F8)</f>
+        <v>31.1712598800659</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>53.990205848207488</v>
+      </c>
+      <c r="C8">
+        <f>ABS(input!J8)/1000</f>
+        <v>0.90789999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>ABS(input!F9)</f>
+        <v>37.518431854248</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>64.983830191868137</v>
+      </c>
+      <c r="C9">
+        <f>ABS(input!J9)/1000</f>
+        <v>1.0931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>ABS(input!F10)</f>
+        <v>43.933378601074203</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>76.094843885219802</v>
+      </c>
+      <c r="C10">
+        <f>ABS(input!J10)/1000</f>
+        <v>1.2774000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ABS(input!F11)</f>
+        <v>50.217210769653299</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>86.978760467434512</v>
+      </c>
+      <c r="C11">
+        <f>ABS(input!J11)/1000</f>
+        <v>1.4524000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ABS(input!F12)</f>
+        <v>1.95163453221321</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.3803301675991984</v>
+      </c>
+      <c r="C12">
+        <f>ABS(input!J12)/1000</f>
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ABS(input!F13)</f>
+        <v>7.9110350608825604</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>13.702314665907339</v>
+      </c>
+      <c r="C13">
+        <f>ABS(input!J13)/1000</f>
+        <v>0.19989999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>ABS(input!F14)</f>
+        <v>13.157800579071001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>22.789979118810166</v>
+      </c>
+      <c r="C14">
+        <f>ABS(input!J14)/1000</f>
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>ABS(input!F15)</f>
+        <v>19.294729232788001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>33.419451349473277</v>
+      </c>
+      <c r="C15">
+        <f>ABS(input!J15)/1000</f>
+        <v>0.5532999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ABS(input!F16)</f>
+        <v>25.239873123168898</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>43.716742625920688</v>
+      </c>
+      <c r="C16">
+        <f>ABS(input!J16)/1000</f>
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>ABS(input!F17)</f>
+        <v>31.386850929260198</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>54.363620499069093</v>
+      </c>
+      <c r="C17">
+        <f>ABS(input!J17)/1000</f>
+        <v>0.9123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>ABS(input!F18)</f>
+        <v>37.632703018188401</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>65.181753653652947</v>
+      </c>
+      <c r="C18">
+        <f>ABS(input!J18)/1000</f>
+        <v>1.1020999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>ABS(input!F19)</f>
+        <v>44.060219192504803</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>76.314538234039688</v>
+      </c>
+      <c r="C19">
+        <f>ABS(input!J19)/1000</f>
+        <v>1.2787999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ABS(input!F20)</f>
+        <v>50.818592834472597</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>88.020384758462214</v>
+      </c>
+      <c r="C20">
+        <f>ABS(input!J20)/1000</f>
+        <v>1.4505999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ABS(input!F21)</f>
+        <v>1.84734503626823</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.1996954619267446</v>
+      </c>
+      <c r="C21">
+        <f>ABS(input!J21)/1000</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ABS(input!F22)</f>
+        <v>8.0732965946197499</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>13.983359886454204</v>
+      </c>
+      <c r="C22">
+        <f>ABS(input!J22)/1000</f>
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ABS(input!F23)</f>
+        <v>13.826434135436999</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>23.948086410081544</v>
+      </c>
+      <c r="C23">
+        <f>ABS(input!J23)/1000</f>
+        <v>0.37839999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ABS(input!F24)</f>
+        <v>19.502722930908199</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>33.779707002271607</v>
+      </c>
+      <c r="C24">
+        <f>ABS(input!J24)/1000</f>
+        <v>0.55510000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ABS(input!F25)</f>
+        <v>25.188113784790001</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>43.62709282208229</v>
+      </c>
+      <c r="C25">
+        <f>ABS(input!J25)/1000</f>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ABS(input!F26)</f>
+        <v>31.879873847961399</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>55.217561243555473</v>
+      </c>
+      <c r="C26">
+        <f>ABS(input!J26)/1000</f>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ABS(input!F27)</f>
+        <v>37.604373168945301</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>65.132684915393128</v>
+      </c>
+      <c r="C27">
+        <f>ABS(input!J27)/1000</f>
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ABS(input!F28)</f>
+        <v>44.293078231811499</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>76.717861921120559</v>
+      </c>
+      <c r="C28">
+        <f>ABS(input!J28)/1000</f>
+        <v>1.2742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ABS(input!F29)</f>
+        <v>50.873586654663001</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>88.115636849134304</v>
+      </c>
+      <c r="C29">
+        <f>ABS(input!J29)/1000</f>
+        <v>1.4535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ABS(input!F30)</f>
+        <v>2.51650396585464</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4.358712726308811</v>
+      </c>
+      <c r="C30">
+        <f>ABS(input!J30)/1000</f>
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>ABS(input!F31)</f>
+        <v>7.89802269935607</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>13.679776594617005</v>
+      </c>
+      <c r="C31">
+        <f>ABS(input!J31)/1000</f>
+        <v>0.19739999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ABS(input!F32)</f>
+        <v>13.2194314956665</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>22.896726997670612</v>
+      </c>
+      <c r="C32">
+        <f>ABS(input!J32)/1000</f>
+        <v>0.3775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>ABS(input!F33)</f>
+        <v>19.396364212036101</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>33.5954882973572</v>
+      </c>
+      <c r="C33">
+        <f>ABS(input!J33)/1000</f>
+        <v>0.55549999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>ABS(input!F34)</f>
+        <v>25.474915885925199</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>44.123848632965959</v>
+      </c>
+      <c r="C34">
+        <f>ABS(input!J34)/1000</f>
+        <v>0.73320000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>ABS(input!F35)</f>
+        <v>31.653612518310499</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>54.825665124812019</v>
+      </c>
+      <c r="C35">
+        <f>ABS(input!J35)/1000</f>
+        <v>0.91349999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>ABS(input!F36)</f>
+        <v>37.865334701538004</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>65.584683548664728</v>
+      </c>
+      <c r="C36">
+        <f>ABS(input!J36)/1000</f>
+        <v>1.0934000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>ABS(input!F37)</f>
+        <v>44.401649856567303</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>76.905913491457923</v>
+      </c>
+      <c r="C37">
+        <f>ABS(input!J37)/1000</f>
+        <v>1.2715999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>ABS(input!F38)</f>
+        <v>51.109191513061504</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>88.523716434390579</v>
+      </c>
+      <c r="C38">
+        <f>ABS(input!J38)/1000</f>
+        <v>1.4479000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>ABS(input!F39)</f>
+        <v>2.4014473438262902</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>4.1594288112084614</v>
+      </c>
+      <c r="C39">
+        <f>ABS(input!J39)/1000</f>
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>ABS(input!F40)</f>
+        <v>7.84922451972961</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>13.595255668187104</v>
+      </c>
+      <c r="C40">
+        <f>ABS(input!J40)/1000</f>
+        <v>0.1983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>ABS(input!F41)</f>
+        <v>13.1363920211792</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>22.752898408824787</v>
+      </c>
+      <c r="C41">
+        <f>ABS(input!J41)/1000</f>
+        <v>0.37860000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>ABS(input!F42)</f>
+        <v>19.725949859619099</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>34.16634738441644</v>
+      </c>
+      <c r="C42">
+        <f>ABS(input!J42)/1000</f>
+        <v>0.5532999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>ABS(input!F43)</f>
+        <v>25.609956932067799</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>44.357746585992196</v>
+      </c>
+      <c r="C43">
+        <f>ABS(input!J43)/1000</f>
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>ABS(input!F44)</f>
+        <v>31.494419860839798</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>54.549935353880855</v>
+      </c>
+      <c r="C44">
+        <f>ABS(input!J44)/1000</f>
+        <v>0.91410000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>ABS(input!F45)</f>
+        <v>38.199468612670898</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>66.163420459278612</v>
+      </c>
+      <c r="C45">
+        <f>ABS(input!J45)/1000</f>
+        <v>1.0914999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>ABS(input!F46)</f>
+        <v>44.281327438354403</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>76.697508949823629</v>
+      </c>
+      <c r="C46">
+        <f>ABS(input!J46)/1000</f>
+        <v>1.2707999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>ABS(input!F47)</f>
+        <v>51.032682037353503</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>88.391198135203865</v>
+      </c>
+      <c r="C47">
+        <f>ABS(input!J47)/1000</f>
+        <v>1.4552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>ABS(input!F48)</f>
+        <v>2.5746302902698499</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>4.459390473453186</v>
+      </c>
+      <c r="C48">
+        <f>ABS(input!J48)/1000</f>
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>ABS(input!F49)</f>
+        <v>7.8708249568939204</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>13.632668722821387</v>
+      </c>
+      <c r="C49">
+        <f>ABS(input!J49)/1000</f>
+        <v>0.19789999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>ABS(input!F50)</f>
+        <v>13.679168033599799</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>23.693014039466902</v>
+      </c>
+      <c r="C50">
+        <f>ABS(input!J50)/1000</f>
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>ABS(input!F51)</f>
+        <v>19.879877471923798</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>34.432957829615944</v>
+      </c>
+      <c r="C51">
+        <f>ABS(input!J51)/1000</f>
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>ABS(input!F52)</f>
+        <v>25.166786384582501</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>43.590152681329542</v>
+      </c>
+      <c r="C52">
+        <f>ABS(input!J52)/1000</f>
+        <v>0.73209999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>ABS(input!F53)</f>
+        <v>31.531791114807099</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>54.614664264494785</v>
+      </c>
+      <c r="C53">
+        <f>ABS(input!J53)/1000</f>
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>ABS(input!F54)</f>
+        <v>37.996300125121998</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>65.811522316346981</v>
+      </c>
+      <c r="C54">
+        <f>ABS(input!J54)/1000</f>
+        <v>1.0917000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>ABS(input!F55)</f>
+        <v>44.525421142578097</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>77.120291647346747</v>
+      </c>
+      <c r="C55">
+        <f>ABS(input!J55)/1000</f>
+        <v>1.2719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>ABS(input!F56)</f>
+        <v>51.373775100708002</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>88.981988651043167</v>
+      </c>
+      <c r="C56">
+        <f>ABS(input!J56)/1000</f>
+        <v>1.4519000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>ABS(input!F57)</f>
+        <v>2.7326377987861599</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>4.7330675061808067</v>
+      </c>
+      <c r="C57">
+        <f>ABS(input!J57)/1000</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>ABS(input!F58)</f>
+        <v>8.3672252655029293</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>14.492459278225061</v>
+      </c>
+      <c r="C58">
+        <f>ABS(input!J58)/1000</f>
+        <v>0.19669999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>ABS(input!F59)</f>
+        <v>14.0646200180053</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>24.360636460335478</v>
+      </c>
+      <c r="C59">
+        <f>ABS(input!J59)/1000</f>
+        <v>0.37560000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>ABS(input!F60)</f>
+        <v>19.283733367919901</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>33.400405952848566</v>
+      </c>
+      <c r="C60">
+        <f>ABS(input!J60)/1000</f>
+        <v>0.5532999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>ABS(input!F61)</f>
+        <v>25.4961992263793</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>44.160712459987252</v>
+      </c>
+      <c r="C61">
+        <f>ABS(input!J61)/1000</f>
+        <v>0.73229999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>ABS(input!F62)</f>
+        <v>31.235615348815902</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>54.101672789827397</v>
+      </c>
+      <c r="C62">
+        <f>ABS(input!J62)/1000</f>
+        <v>0.91160000000000008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>ABS(input!F63)</f>
+        <v>37.728811645507797</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>65.348218679215833</v>
+      </c>
+      <c r="C63">
+        <f>ABS(input!J63)/1000</f>
+        <v>1.0919000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>ABS(input!F64)</f>
+        <v>44.668098068237299</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>77.367415331656218</v>
+      </c>
+      <c r="C64">
+        <f>ABS(input!J64)/1000</f>
+        <v>1.2718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>ABS(input!F65)</f>
+        <v>51.696149444580001</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>89.540357393686151</v>
+      </c>
+      <c r="C65">
+        <f>ABS(input!J65)/1000</f>
+        <v>1.4527999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>ABS(input!F66)</f>
+        <v>2.88736026287078</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>5.0010546750476204</v>
+      </c>
+      <c r="C66">
+        <f>ABS(input!J66)/1000</f>
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>ABS(input!F67)</f>
+        <v>8.3758528232574392</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>14.507402646601108</v>
+      </c>
+      <c r="C67">
+        <f>ABS(input!J67)/1000</f>
+        <v>0.1976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>ABS(input!F68)</f>
+        <v>13.6579906463623</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B131" si="1">SQRT(3)*A68</f>
+        <v>23.656333728799993</v>
+      </c>
+      <c r="C68">
+        <f>ABS(input!J68)/1000</f>
+        <v>0.37619999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>ABS(input!F69)</f>
+        <v>19.827187919616598</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>34.341696847991813</v>
+      </c>
+      <c r="C69">
+        <f>ABS(input!J69)/1000</f>
+        <v>0.55310000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>ABS(input!F70)</f>
+        <v>25.428113555908201</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>44.042784619463916</v>
+      </c>
+      <c r="C70">
+        <f>ABS(input!J70)/1000</f>
+        <v>0.73029999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>ABS(input!F71)</f>
+        <v>31.820109367370598</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>55.114046126684237</v>
+      </c>
+      <c r="C71">
+        <f>ABS(input!J71)/1000</f>
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>ABS(input!F72)</f>
+        <v>38.287206268310499</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>66.315386536583375</v>
+      </c>
+      <c r="C72">
+        <f>ABS(input!J72)/1000</f>
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>ABS(input!F73)</f>
+        <v>45.014538955688401</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>77.967468550540772</v>
+      </c>
+      <c r="C73">
+        <f>ABS(input!J73)/1000</f>
+        <v>1.2725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>ABS(input!F74)</f>
+        <v>51.3899417877197</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>89.009990174337489</v>
+      </c>
+      <c r="C74">
+        <f>ABS(input!J74)/1000</f>
+        <v>1.4519000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>ABS(input!F75)</f>
+        <v>2.5461522459983801</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>4.4100650538748045</v>
+      </c>
+      <c r="C75">
+        <f>ABS(input!J75)/1000</f>
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>ABS(input!F76)</f>
+        <v>8.2231778144836394</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>14.242961774358863</v>
+      </c>
+      <c r="C76">
+        <f>ABS(input!J76)/1000</f>
+        <v>0.19690000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>ABS(input!F77)</f>
+        <v>13.642719173431299</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>23.629882761777086</v>
+      </c>
+      <c r="C77">
+        <f>ABS(input!J77)/1000</f>
+        <v>0.37619999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>ABS(input!F78)</f>
+        <v>19.447377204895002</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>33.683845392834961</v>
+      </c>
+      <c r="C78">
+        <f>ABS(input!J78)/1000</f>
+        <v>0.55379999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>ABS(input!F79)</f>
+        <v>25.459407043456999</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>44.096986529844457</v>
+      </c>
+      <c r="C79">
+        <f>ABS(input!J79)/1000</f>
+        <v>0.7319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>ABS(input!F80)</f>
+        <v>31.490037155151299</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>54.542344284953757</v>
+      </c>
+      <c r="C80">
+        <f>ABS(input!J80)/1000</f>
+        <v>0.91089999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>ABS(input!F81)</f>
+        <v>38.681756973266602</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>66.998768403729457</v>
+      </c>
+      <c r="C81">
+        <f>ABS(input!J81)/1000</f>
+        <v>1.0917000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>ABS(input!F82)</f>
+        <v>44.634686660766597</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>77.309545076364572</v>
+      </c>
+      <c r="C82">
+        <f>ABS(input!J82)/1000</f>
+        <v>1.2725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>ABS(input!F83)</f>
+        <v>51.572779464721599</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>89.326674320442649</v>
+      </c>
+      <c r="C83">
+        <f>ABS(input!J83)/1000</f>
+        <v>1.4534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>ABS(input!F84)</f>
+        <v>2.9916409134864801</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>5.1816740601603515</v>
+      </c>
+      <c r="C84">
+        <f>ABS(input!J84)/1000</f>
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>ABS(input!F85)</f>
+        <v>8.4685111522674497</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>14.667891580190879</v>
+      </c>
+      <c r="C85">
+        <f>ABS(input!J85)/1000</f>
+        <v>0.19640000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>ABS(input!F86)</f>
+        <v>13.4781970024108</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>23.344922002598047</v>
+      </c>
+      <c r="C86">
+        <f>ABS(input!J86)/1000</f>
+        <v>0.37689999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>ABS(input!F87)</f>
+        <v>19.627900695800701</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>33.996521251043333</v>
+      </c>
+      <c r="C87">
+        <f>ABS(input!J87)/1000</f>
+        <v>0.55270000000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>ABS(input!F88)</f>
+        <v>25.2627159118652</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>43.756307496529246</v>
+      </c>
+      <c r="C88">
+        <f>ABS(input!J88)/1000</f>
+        <v>0.72929999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>ABS(input!F89)</f>
+        <v>32.074231529235803</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>55.554198622364012</v>
+      </c>
+      <c r="C89">
+        <f>ABS(input!J89)/1000</f>
+        <v>0.91060000000000008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>ABS(input!F90)</f>
+        <v>37.971031570434498</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>65.767755895794409</v>
+      </c>
+      <c r="C90">
+        <f>ABS(input!J90)/1000</f>
+        <v>1.0900999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>ABS(input!F91)</f>
+        <v>45.135969543457001</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>78.177792498148946</v>
+      </c>
+      <c r="C91">
+        <f>ABS(input!J91)/1000</f>
+        <v>1.2712000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>ABS(input!F92)</f>
+        <v>51.964103698730398</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>90.004467775978867</v>
+      </c>
+      <c r="C92">
+        <f>ABS(input!J92)/1000</f>
+        <v>1.4527999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>ABS(input!F93)</f>
+        <v>2.5991145491599998</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>4.5017984538365958</v>
+      </c>
+      <c r="C93">
+        <f>ABS(input!J93)/1000</f>
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>ABS(input!F94)</f>
+        <v>8.4319188594818097</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>14.604511869920714</v>
+      </c>
+      <c r="C94">
+        <f>ABS(input!J94)/1000</f>
+        <v>0.19619999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>ABS(input!F95)</f>
+        <v>13.380159664154</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>23.175116351698453</v>
+      </c>
+      <c r="C95">
+        <f>ABS(input!J95)/1000</f>
+        <v>0.37639999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>ABS(input!F96)</f>
+        <v>19.591415023803702</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>33.933326213396235</v>
+      </c>
+      <c r="C96">
+        <f>ABS(input!J96)/1000</f>
+        <v>0.55310000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>ABS(input!F97)</f>
+        <v>25.5239828109741</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>44.208835040121834</v>
+      </c>
+      <c r="C97">
+        <f>ABS(input!J97)/1000</f>
+        <v>0.73020000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>ABS(input!F98)</f>
+        <v>31.916983413696201</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>55.281836896854962</v>
+      </c>
+      <c r="C98">
+        <f>ABS(input!J98)/1000</f>
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>ABS(input!F99)</f>
+        <v>38.157798385620097</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>66.091245508863693</v>
+      </c>
+      <c r="C99">
+        <f>ABS(input!J99)/1000</f>
+        <v>1.0900999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>ABS(input!F100)</f>
+        <v>44.257460021972598</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>76.656169372004939</v>
+      </c>
+      <c r="C100">
+        <f>ABS(input!J100)/1000</f>
+        <v>1.2702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>ABS(input!F101)</f>
+        <v>52.119551849365202</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>90.273711870820961</v>
+      </c>
+      <c r="C101">
+        <f>ABS(input!J101)/1000</f>
+        <v>1.4527000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>ABS(input!F102)</f>
+        <v>2.70457048416137</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>4.6844534912186502</v>
+      </c>
+      <c r="C102">
+        <f>ABS(input!J102)/1000</f>
+        <v>1.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>ABS(input!F103)</f>
+        <v>8.0125042438506995</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>13.87806444621066</v>
+      </c>
+      <c r="C103">
+        <f>ABS(input!J103)/1000</f>
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>ABS(input!F104)</f>
+        <v>13.8698417663574</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>24.023270632271878</v>
+      </c>
+      <c r="C104">
+        <f>ABS(input!J104)/1000</f>
+        <v>0.37580000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>ABS(input!F105)</f>
+        <v>19.3625392913818</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>33.536901816221963</v>
+      </c>
+      <c r="C105">
+        <f>ABS(input!J105)/1000</f>
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>ABS(input!F106)</f>
+        <v>25.436617088317799</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>44.057513169641147</v>
+      </c>
+      <c r="C106">
+        <f>ABS(input!J106)/1000</f>
+        <v>0.72950000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>ABS(input!F107)</f>
+        <v>31.373127555847098</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>54.339850919066357</v>
+      </c>
+      <c r="C107">
+        <f>ABS(input!J107)/1000</f>
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>ABS(input!F108)</f>
+        <v>38.4092098236084</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>66.526702893063387</v>
+      </c>
+      <c r="C108">
+        <f>ABS(input!J108)/1000</f>
+        <v>1.0892999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>ABS(input!F109)</f>
+        <v>44.846636581420803</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>77.676653107597858</v>
+      </c>
+      <c r="C109">
+        <f>ABS(input!J109)/1000</f>
+        <v>1.2706</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>ABS(input!F110)</f>
+        <v>51.037544631957999</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>88.399620396115466</v>
+      </c>
+      <c r="C110">
+        <f>ABS(input!J110)/1000</f>
+        <v>1.4515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>ABS(input!F111)</f>
+        <v>2.4771156191825798</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>4.2904901086466669</v>
+      </c>
+      <c r="C111">
+        <f>ABS(input!J111)/1000</f>
+        <v>1.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>ABS(input!F112)</f>
+        <v>7.55670118331909</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>13.088590387124519</v>
+      </c>
+      <c r="C112">
+        <f>ABS(input!J112)/1000</f>
+        <v>0.1956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>ABS(input!F113)</f>
+        <v>13.223483753204301</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>22.903745713611436</v>
+      </c>
+      <c r="C113">
+        <f>ABS(input!J113)/1000</f>
+        <v>0.37410000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>ABS(input!F114)</f>
+        <v>19.7044729232788</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>34.129148239484117</v>
+      </c>
+      <c r="C114">
+        <f>ABS(input!J114)/1000</f>
+        <v>0.55059999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>ABS(input!F115)</f>
+        <v>25.698126411437901</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>44.510460603938107</v>
+      </c>
+      <c r="C115">
+        <f>ABS(input!J115)/1000</f>
+        <v>0.72920000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>ABS(input!F116)</f>
+        <v>32.149254226684498</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>55.684141746066025</v>
+      </c>
+      <c r="C116">
+        <f>ABS(input!J116)/1000</f>
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>ABS(input!F117)</f>
+        <v>37.880427932739202</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>65.610825791955591</v>
+      </c>
+      <c r="C117">
+        <f>ABS(input!J117)/1000</f>
+        <v>1.0894000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>ABS(input!F118)</f>
+        <v>45.251492691039999</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>78.377884459212979</v>
+      </c>
+      <c r="C118">
+        <f>ABS(input!J118)/1000</f>
+        <v>1.2698</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>ABS(input!F119)</f>
+        <v>51.1935005187988</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>88.669743915863194</v>
+      </c>
+      <c r="C119">
+        <f>ABS(input!J119)/1000</f>
+        <v>1.4513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>ABS(input!F120)</f>
+        <v>2.08253648281097</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>3.6070589968443896</v>
+      </c>
+      <c r="C120">
+        <f>ABS(input!J120)/1000</f>
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>ABS(input!F121)</f>
+        <v>8.1005426883697496</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>14.030551505136987</v>
+      </c>
+      <c r="C121">
+        <f>ABS(input!J121)/1000</f>
+        <v>0.19739999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>ABS(input!F122)</f>
+        <v>13.243582344055101</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>22.938557494125561</v>
+      </c>
+      <c r="C122">
+        <f>ABS(input!J122)/1000</f>
+        <v>0.37630000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>ABS(input!F123)</f>
+        <v>19.435478210449201</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>33.663235729895852</v>
+      </c>
+      <c r="C123">
+        <f>ABS(input!J123)/1000</f>
+        <v>0.55210000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>ABS(input!F124)</f>
+        <v>26.0163728713989</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>45.061679641919497</v>
+      </c>
+      <c r="C124">
+        <f>ABS(input!J124)/1000</f>
+        <v>0.72989999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>ABS(input!F125)</f>
+        <v>32.390002632141098</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>56.101130216158047</v>
+      </c>
+      <c r="C125">
+        <f>ABS(input!J125)/1000</f>
+        <v>0.9083</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f>ABS(input!F126)</f>
+        <v>38.313607025146403</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>66.36111398878144</v>
+      </c>
+      <c r="C126">
+        <f>ABS(input!J126)/1000</f>
+        <v>1.0889000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f>ABS(input!F127)</f>
+        <v>44.709372329711897</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>77.438904449575105</v>
+      </c>
+      <c r="C127">
+        <f>ABS(input!J127)/1000</f>
+        <v>1.2706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>ABS(input!F128)</f>
+        <v>51.661222839355403</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>89.479862738901247</v>
+      </c>
+      <c r="C128">
+        <f>ABS(input!J128)/1000</f>
+        <v>1.4499000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>ABS(input!F129)</f>
+        <v>2.0775067687034601</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>3.5983472764626367</v>
+      </c>
+      <c r="C129">
+        <f>ABS(input!J129)/1000</f>
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>ABS(input!F130)</f>
+        <v>8.1813080310821498</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>14.170441182205579</v>
+      </c>
+      <c r="C130">
+        <f>ABS(input!J130)/1000</f>
+        <v>0.1951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>ABS(input!F131)</f>
+        <v>13.341664028167701</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>23.108439954300504</v>
+      </c>
+      <c r="C131">
+        <f>ABS(input!J131)/1000</f>
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>ABS(input!F132)</f>
+        <v>19.219814872741701</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B195" si="2">SQRT(3)*A132</f>
+        <v>33.289695871656576</v>
+      </c>
+      <c r="C132">
+        <f>ABS(input!J132)/1000</f>
+        <v>0.55220000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>ABS(input!F133)</f>
+        <v>25.3442676544189</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>43.897559258078026</v>
+      </c>
+      <c r="C133">
+        <f>ABS(input!J133)/1000</f>
+        <v>0.72870000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>ABS(input!F134)</f>
+        <v>31.535760116577102</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>54.621538777215754</v>
+      </c>
+      <c r="C134">
+        <f>ABS(input!J134)/1000</f>
+        <v>0.90749999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>ABS(input!F135)</f>
+        <v>38.666870880126901</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>66.972984934085304</v>
+      </c>
+      <c r="C135">
+        <f>ABS(input!J135)/1000</f>
+        <v>1.0894000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>ABS(input!F136)</f>
+        <v>44.447903442382803</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>76.986027052122608</v>
+      </c>
+      <c r="C136">
+        <f>ABS(input!J136)/1000</f>
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>ABS(input!F137)</f>
+        <v>50.864583587646401</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>88.100043079637601</v>
+      </c>
+      <c r="C137">
+        <f>ABS(input!J137)/1000</f>
+        <v>1.4507000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>ABS(input!F138)</f>
+        <v>2.1682004094123801</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>3.7554332700938833</v>
+      </c>
+      <c r="C138">
+        <f>ABS(input!J138)/1000</f>
+        <v>1.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>ABS(input!F139)</f>
+        <v>7.2319414615631104</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>12.526090048791231</v>
+      </c>
+      <c r="C139">
+        <f>ABS(input!J139)/1000</f>
+        <v>0.19640000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>ABS(input!F140)</f>
+        <v>13.611790561676001</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>23.576312834809336</v>
+      </c>
+      <c r="C140">
+        <f>ABS(input!J140)/1000</f>
+        <v>0.37480000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>ABS(input!F141)</f>
+        <v>19.223196220397899</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>33.295552537595171</v>
+      </c>
+      <c r="C141">
+        <f>ABS(input!J141)/1000</f>
+        <v>0.55110000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>ABS(input!F142)</f>
+        <v>25.046761131286601</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>43.382262844429725</v>
+      </c>
+      <c r="C142">
+        <f>ABS(input!J142)/1000</f>
+        <v>0.72789999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>ABS(input!F143)</f>
+        <v>31.822155570983799</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>55.117590255304933</v>
+      </c>
+      <c r="C143">
+        <f>ABS(input!J143)/1000</f>
+        <v>0.9073</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>ABS(input!F144)</f>
+        <v>37.604136657714797</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>65.13227526592533</v>
+      </c>
+      <c r="C144">
+        <f>ABS(input!J144)/1000</f>
+        <v>1.0864</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>ABS(input!F145)</f>
+        <v>44.072329711914001</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>76.33551426896247</v>
+      </c>
+      <c r="C145">
+        <f>ABS(input!J145)/1000</f>
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>ABS(input!F146)</f>
+        <v>51.0941162109375</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>88.497605245172352</v>
+      </c>
+      <c r="C146">
+        <f>ABS(input!J146)/1000</f>
+        <v>1.4489000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>ABS(input!F147)</f>
+        <v>1.81135337352752</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>3.1373560734109511</v>
+      </c>
+      <c r="C147">
+        <f>ABS(input!J147)/1000</f>
+        <v>1.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>ABS(input!F148)</f>
+        <v>8.0899815082550006</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>14.012259004590357</v>
+      </c>
+      <c r="C148">
+        <f>ABS(input!J148)/1000</f>
+        <v>0.1966</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>ABS(input!F149)</f>
+        <v>13.1425246238708</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>22.763520388269274</v>
+      </c>
+      <c r="C149">
+        <f>ABS(input!J149)/1000</f>
+        <v>0.37510000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>ABS(input!F150)</f>
+        <v>19.452188682556098</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>33.692179116603462</v>
+      </c>
+      <c r="C150">
+        <f>ABS(input!J150)/1000</f>
+        <v>0.55189999999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>ABS(input!F151)</f>
+        <v>25.2210840225219</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>43.684198948971563</v>
+      </c>
+      <c r="C151">
+        <f>ABS(input!J151)/1000</f>
+        <v>0.7288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>ABS(input!F152)</f>
+        <v>31.5479169845581</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>54.642595090219757</v>
+      </c>
+      <c r="C152">
+        <f>ABS(input!J152)/1000</f>
+        <v>0.90670000000000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>ABS(input!F153)</f>
+        <v>37.868229675292902</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>65.589697790294792</v>
+      </c>
+      <c r="C153">
+        <f>ABS(input!J153)/1000</f>
+        <v>1.0880000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>ABS(input!F154)</f>
+        <v>44.553020858764597</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>77.168095758056253</v>
+      </c>
+      <c r="C154">
+        <f>ABS(input!J154)/1000</f>
+        <v>1.2697000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>ABS(input!F155)</f>
+        <v>51.733390808105398</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>89.604861327455282</v>
+      </c>
+      <c r="C155">
+        <f>ABS(input!J155)/1000</f>
+        <v>1.4504000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>ABS(input!F156)</f>
+        <v>1.8365988492965699</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>3.1810825201041943</v>
+      </c>
+      <c r="C156">
+        <f>ABS(input!J156)/1000</f>
+        <v>1.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>ABS(input!F157)</f>
+        <v>7.7570178508758501</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>13.435549032935713</v>
+      </c>
+      <c r="C157">
+        <f>ABS(input!J157)/1000</f>
+        <v>0.19869999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>ABS(input!F158)</f>
+        <v>13.441576004028301</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>23.281492572775658</v>
+      </c>
+      <c r="C158">
+        <f>ABS(input!J158)/1000</f>
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>ABS(input!F159)</f>
+        <v>18.664218139648401</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>32.3273741014197</v>
+      </c>
+      <c r="C159">
+        <f>ABS(input!J159)/1000</f>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>ABS(input!F160)</f>
+        <v>25.530367279052701</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>44.219893263213265</v>
+      </c>
+      <c r="C160">
+        <f>ABS(input!J160)/1000</f>
+        <v>0.73020000000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f>ABS(input!F161)</f>
+        <v>31.500298690795798</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>54.560117786053709</v>
+      </c>
+      <c r="C161">
+        <f>ABS(input!J161)/1000</f>
+        <v>0.90989999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f>ABS(input!F162)</f>
+        <v>38.2000099182128</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>66.164358027979603</v>
+      </c>
+      <c r="C162">
+        <f>ABS(input!J162)/1000</f>
+        <v>1.0904</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f>ABS(input!F163)</f>
+        <v>44.566487884521401</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>77.191421330893874</v>
+      </c>
+      <c r="C163">
+        <f>ABS(input!J163)/1000</f>
+        <v>1.2702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f>ABS(input!F164)</f>
+        <v>51.717520523071201</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>89.57737318744546</v>
+      </c>
+      <c r="C164">
+        <f>ABS(input!J164)/1000</f>
+        <v>1.4535</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f>ABS(input!F165)</f>
+        <v>2.18454083204269</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>3.7837357123067283</v>
+      </c>
+      <c r="C165">
+        <f>ABS(input!J165)/1000</f>
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f>ABS(input!F166)</f>
+        <v>7.9031990051269503</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>13.688742219207681</v>
+      </c>
+      <c r="C166">
+        <f>ABS(input!J166)/1000</f>
+        <v>0.2006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f>ABS(input!F167)</f>
+        <v>13.2530973434448</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>22.955037956502508</v>
+      </c>
+      <c r="C167">
+        <f>ABS(input!J167)/1000</f>
+        <v>0.3775</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f>ABS(input!F168)</f>
+        <v>19.253755378723099</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>33.348482552450953</v>
+      </c>
+      <c r="C168">
+        <f>ABS(input!J168)/1000</f>
+        <v>0.5542999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f>ABS(input!F169)</f>
+        <v>25.376324653625399</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>43.953083609441883</v>
+      </c>
+      <c r="C169">
+        <f>ABS(input!J169)/1000</f>
+        <v>0.73280000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f>ABS(input!F170)</f>
+        <v>31.6080722808837</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>54.746787119800054</v>
+      </c>
+      <c r="C170">
+        <f>ABS(input!J170)/1000</f>
+        <v>0.90970000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f>ABS(input!F171)</f>
+        <v>38.036515045165999</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>65.881176601085514</v>
+      </c>
+      <c r="C171">
+        <f>ABS(input!J171)/1000</f>
+        <v>1.0904</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f>ABS(input!F172)</f>
+        <v>44.354063034057603</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>76.823490697100354</v>
+      </c>
+      <c r="C172">
+        <f>ABS(input!J172)/1000</f>
+        <v>1.2706</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f>ABS(input!F173)</f>
+        <v>51.478115081787102</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>89.162710799532945</v>
+      </c>
+      <c r="C173">
+        <f>ABS(input!J173)/1000</f>
+        <v>1.4502000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f>ABS(input!F174)</f>
+        <v>1.9814767658710399</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>3.4320184325059016</v>
+      </c>
+      <c r="C174">
+        <f>ABS(input!J174)/1000</f>
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f>ABS(input!F175)</f>
+        <v>8.0024809360504108</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>13.860703567840659</v>
+      </c>
+      <c r="C175">
+        <f>ABS(input!J175)/1000</f>
+        <v>0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f>ABS(input!F176)</f>
+        <v>13.3253276824951</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>23.080144573585553</v>
+      </c>
+      <c r="C176">
+        <f>ABS(input!J176)/1000</f>
+        <v>0.37639999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f>ABS(input!F177)</f>
+        <v>19.1599161148071</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>33.185948179603578</v>
+      </c>
+      <c r="C177">
+        <f>ABS(input!J177)/1000</f>
+        <v>0.55349999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f>ABS(input!F178)</f>
+        <v>25.597667503356899</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>44.33646067106892</v>
+      </c>
+      <c r="C178">
+        <f>ABS(input!J178)/1000</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f>ABS(input!F179)</f>
+        <v>31.327714347839301</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>54.261192935462162</v>
+      </c>
+      <c r="C179">
+        <f>ABS(input!J179)/1000</f>
+        <v>0.9113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f>ABS(input!F180)</f>
+        <v>38.138460540771398</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>66.057751379076862</v>
+      </c>
+      <c r="C180">
+        <f>ABS(input!J180)/1000</f>
+        <v>1.0914999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f>ABS(input!F181)</f>
+        <v>44.298778915405201</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>76.727735794742728</v>
+      </c>
+      <c r="C181">
+        <f>ABS(input!J181)/1000</f>
+        <v>1.2706</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f>ABS(input!F182)</f>
+        <v>51.971815490722598</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>90.017824991526751</v>
+      </c>
+      <c r="C182">
+        <f>ABS(input!J182)/1000</f>
+        <v>1.4519000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f>ABS(input!F183)</f>
+        <v>2.21577243804931</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>3.8378304407121675</v>
+      </c>
+      <c r="C183">
+        <f>ABS(input!J183)/1000</f>
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f>ABS(input!F184)</f>
+        <v>7.1891742706298798</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>12.452015101197876</v>
+      </c>
+      <c r="C184">
+        <f>ABS(input!J184)/1000</f>
+        <v>0.19839999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f>ABS(input!F185)</f>
+        <v>13.1175941467285</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>22.720339535201877</v>
+      </c>
+      <c r="C185">
+        <f>ABS(input!J185)/1000</f>
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f>ABS(input!F186)</f>
+        <v>19.400523185729899</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>33.6026918511022</v>
+      </c>
+      <c r="C186">
+        <f>ABS(input!J186)/1000</f>
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f>ABS(input!F187)</f>
+        <v>25.444916915893501</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>44.071888892696322</v>
+      </c>
+      <c r="C187">
+        <f>ABS(input!J187)/1000</f>
+        <v>0.73080000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f>ABS(input!F188)</f>
+        <v>31.201260566711401</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>54.042168561739444</v>
+      </c>
+      <c r="C188">
+        <f>ABS(input!J188)/1000</f>
+        <v>0.91120000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f>ABS(input!F189)</f>
+        <v>37.885020828247001</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>65.618780920328945</v>
+      </c>
+      <c r="C189">
+        <f>ABS(input!J189)/1000</f>
+        <v>1.0884</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f>ABS(input!F190)</f>
+        <v>44.280942153930603</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>76.696841617626234</v>
+      </c>
+      <c r="C190">
+        <f>ABS(input!J190)/1000</f>
+        <v>1.2705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f>ABS(input!F191)</f>
+        <v>51.4906513214111</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>89.184424203497571</v>
+      </c>
+      <c r="C191">
+        <f>ABS(input!J191)/1000</f>
+        <v>1.4498</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f>ABS(input!F192)</f>
+        <v>1.61131266355514</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>2.7908754001566387</v>
+      </c>
+      <c r="C192">
+        <f>ABS(input!J192)/1000</f>
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f>ABS(input!F193)</f>
+        <v>7.6373187065124499</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>13.228224033275781</v>
+      </c>
+      <c r="C193">
+        <f>ABS(input!J193)/1000</f>
+        <v>0.1993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f>ABS(input!F194)</f>
+        <v>13.052257728576601</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>22.60717353937822</v>
+      </c>
+      <c r="C194">
+        <f>ABS(input!J194)/1000</f>
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f>ABS(input!F195)</f>
+        <v>19.6595197677612</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="2"/>
+        <v>34.051287090167094</v>
+      </c>
+      <c r="C195">
+        <f>ABS(input!J195)/1000</f>
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f>ABS(input!F196)</f>
+        <v>25.515898704528801</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ref="B196:B259" si="3">SQRT(3)*A196</f>
+        <v>44.194832957024779</v>
+      </c>
+      <c r="C196">
+        <f>ABS(input!J196)/1000</f>
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f>ABS(input!F197)</f>
+        <v>30.6837404251098</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>53.145797382545233</v>
+      </c>
+      <c r="C197">
+        <f>ABS(input!J197)/1000</f>
+        <v>0.90960000000000008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f>ABS(input!F198)</f>
+        <v>38.191793441772397</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>66.15012667332563</v>
+      </c>
+      <c r="C198">
+        <f>ABS(input!J198)/1000</f>
+        <v>1.0894000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f>ABS(input!F199)</f>
+        <v>44.307873916625901</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>76.743488798951887</v>
+      </c>
+      <c r="C199">
+        <f>ABS(input!J199)/1000</f>
+        <v>1.2702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f>ABS(input!F200)</f>
+        <v>51.776265335083004</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>89.679122186530975</v>
+      </c>
+      <c r="C200">
+        <f>ABS(input!J200)/1000</f>
+        <v>1.4512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f>ABS(input!F201)</f>
+        <v>1.9216160655021599</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>3.3283366580903446</v>
+      </c>
+      <c r="C201">
+        <f>ABS(input!J201)/1000</f>
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f>ABS(input!F202)</f>
+        <v>7.1517302036285404</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="3"/>
+        <v>12.387160074709543</v>
+      </c>
+      <c r="C202">
+        <f>ABS(input!J202)/1000</f>
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f>ABS(input!F203)</f>
+        <v>13.3599998474121</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="3"/>
+        <v>23.140198524830204</v>
+      </c>
+      <c r="C203">
+        <f>ABS(input!J203)/1000</f>
+        <v>0.37589999999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f>ABS(input!F204)</f>
+        <v>19.424415969848599</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="3"/>
+        <v>33.644075367130064</v>
+      </c>
+      <c r="C204">
+        <f>ABS(input!J204)/1000</f>
+        <v>0.55589999999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f>ABS(input!F205)</f>
+        <v>26.165722846984799</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="3"/>
+        <v>45.320361387743439</v>
+      </c>
+      <c r="C205">
+        <f>ABS(input!J205)/1000</f>
+        <v>0.73429999999999995</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f>ABS(input!F206)</f>
+        <v>31.643744277954099</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="3"/>
+        <v>54.808572831133432</v>
+      </c>
+      <c r="C206">
+        <f>ABS(input!J206)/1000</f>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f>ABS(input!F207)</f>
+        <v>38.052079391479403</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="3"/>
+        <v>65.908134839686923</v>
+      </c>
+      <c r="C207">
+        <f>ABS(input!J207)/1000</f>
+        <v>1.0925</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f>ABS(input!F208)</f>
+        <v>45.644873046874999</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>79.059239222218721</v>
+      </c>
+      <c r="C208">
+        <f>ABS(input!J208)/1000</f>
+        <v>1.2730999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f>ABS(input!F209)</f>
+        <v>52.415024185180599</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
+        <v>90.785484968684287</v>
+      </c>
+      <c r="C209">
+        <f>ABS(input!J209)/1000</f>
+        <v>1.4522999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f>ABS(input!F210)</f>
+        <v>1.6546473264694199</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
+        <v>2.8659332380530422</v>
+      </c>
+      <c r="C210">
+        <f>ABS(input!J210)/1000</f>
+        <v>1.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f>ABS(input!F211)</f>
+        <v>7.6177417278289798</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
+        <v>13.194315711537319</v>
+      </c>
+      <c r="C211">
+        <f>ABS(input!J211)/1000</f>
+        <v>0.19440000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f>ABS(input!F212)</f>
+        <v>13.747080802917401</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
+        <v>23.810642406407691</v>
+      </c>
+      <c r="C212">
+        <f>ABS(input!J212)/1000</f>
+        <v>0.37680000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f>ABS(input!F213)</f>
+        <v>19.8378343582153</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
+        <v>34.36013702056443</v>
+      </c>
+      <c r="C213">
+        <f>ABS(input!J213)/1000</f>
+        <v>0.5534</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f>ABS(input!F214)</f>
+        <v>25.183693504333402</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
+        <v>43.619436671747756</v>
+      </c>
+      <c r="C214">
+        <f>ABS(input!J214)/1000</f>
+        <v>0.73280000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f>ABS(input!F215)</f>
+        <v>31.849512100219702</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
+        <v>55.164973153860259</v>
+      </c>
+      <c r="C215">
+        <f>ABS(input!J215)/1000</f>
+        <v>0.9163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f>ABS(input!F216)</f>
+        <v>38.382607269287099</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
+        <v>66.480625917367774</v>
+      </c>
+      <c r="C216">
+        <f>ABS(input!J216)/1000</f>
+        <v>1.0966</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f>ABS(input!F217)</f>
+        <v>44.623510742187499</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
+        <v>77.29018781756433</v>
+      </c>
+      <c r="C217">
+        <f>ABS(input!J217)/1000</f>
+        <v>1.2763</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f>ABS(input!F218)</f>
+        <v>51.471494674682603</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="3"/>
+        <v>89.151243918061169</v>
+      </c>
+      <c r="C218">
+        <f>ABS(input!J218)/1000</f>
+        <v>1.4535</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f>ABS(input!F219)</f>
+        <v>2.52891591787338</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="3"/>
+        <v>4.3802108578263761</v>
+      </c>
+      <c r="C219">
+        <f>ABS(input!J219)/1000</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f>ABS(input!F220)</f>
+        <v>7.90201358795166</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="3"/>
+        <v>13.686689016431913</v>
+      </c>
+      <c r="C220">
+        <f>ABS(input!J220)/1000</f>
+        <v>0.19669999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f>ABS(input!F221)</f>
+        <v>13.4661845207214</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="3"/>
+        <v>23.324115773987014</v>
+      </c>
+      <c r="C221">
+        <f>ABS(input!J221)/1000</f>
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f>ABS(input!F222)</f>
+        <v>19.889719963073698</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="3"/>
+        <v>34.45000552436062</v>
+      </c>
+      <c r="C222">
+        <f>ABS(input!J222)/1000</f>
+        <v>0.55310000000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f>ABS(input!F223)</f>
+        <v>25.3346200942993</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
+        <v>43.880849193781806</v>
+      </c>
+      <c r="C223">
+        <f>ABS(input!J223)/1000</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f>ABS(input!F224)</f>
+        <v>31.751463508605902</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="3"/>
+        <v>54.995148011574585</v>
+      </c>
+      <c r="C224">
+        <f>ABS(input!J224)/1000</f>
+        <v>0.92020000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f>ABS(input!F225)</f>
+        <v>37.575839996337798</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="3"/>
+        <v>65.083264010735803</v>
+      </c>
+      <c r="C225">
+        <f>ABS(input!J225)/1000</f>
+        <v>1.0964</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f>ABS(input!F226)</f>
+        <v>44.895296859741201</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="3"/>
+        <v>77.760935181959226</v>
+      </c>
+      <c r="C226">
+        <f>ABS(input!J226)/1000</f>
+        <v>1.2766999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f>ABS(input!F227)</f>
+        <v>51.563835906982398</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="3"/>
+        <v>89.311183624037923</v>
+      </c>
+      <c r="C227">
+        <f>ABS(input!J227)/1000</f>
+        <v>1.4547999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f>ABS(input!F228)</f>
+        <v>2.01488052606582</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="3"/>
+        <v>3.4898754423271079</v>
+      </c>
+      <c r="C228">
+        <f>ABS(input!J228)/1000</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f>ABS(input!F229)</f>
+        <v>7.46567864418029</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="3"/>
+        <v>12.930934724702192</v>
+      </c>
+      <c r="C229">
+        <f>ABS(input!J229)/1000</f>
+        <v>0.2039</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f>ABS(input!F230)</f>
+        <v>13.4466550827026</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="3"/>
+        <v>23.290289795095184</v>
+      </c>
+      <c r="C230">
+        <f>ABS(input!J230)/1000</f>
+        <v>0.36230000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f>ABS(input!F231)</f>
+        <v>19.3872890472412</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="3"/>
+        <v>33.579769650845371</v>
+      </c>
+      <c r="C231">
+        <f>ABS(input!J231)/1000</f>
+        <v>0.53420000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f>ABS(input!F232)</f>
+        <v>25.9694625854492</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="3"/>
+        <v>44.980428643257028</v>
+      </c>
+      <c r="C232">
+        <f>ABS(input!J232)/1000</f>
+        <v>0.72929999999999995</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f>ABS(input!F233)</f>
+        <v>32.021209907531698</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="3"/>
+        <v>55.462362479672812</v>
+      </c>
+      <c r="C233">
+        <f>ABS(input!J233)/1000</f>
+        <v>0.92210000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f>ABS(input!F234)</f>
+        <v>38.0896884918212</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="3"/>
+        <v>65.973275712305878</v>
+      </c>
+      <c r="C234">
+        <f>ABS(input!J234)/1000</f>
+        <v>1.0920999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f>ABS(input!F235)</f>
+        <v>44.987758636474602</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="3"/>
+        <v>77.921083677019567</v>
+      </c>
+      <c r="C235">
+        <f>ABS(input!J235)/1000</f>
+        <v>1.2741</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f>ABS(input!F236)</f>
+        <v>52.480601501464797</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="3"/>
+        <v>90.899068212312528</v>
+      </c>
+      <c r="C236">
+        <f>ABS(input!J236)/1000</f>
+        <v>1.4535</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f>ABS(input!F237)</f>
+        <v>2.05469444990158</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="3"/>
+        <v>3.5588351812593215</v>
+      </c>
+      <c r="C237">
+        <f>ABS(input!J237)/1000</f>
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f>ABS(input!F238)</f>
+        <v>7.6149119853973302</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="3"/>
+        <v>13.189414453873368</v>
+      </c>
+      <c r="C238">
+        <f>ABS(input!J238)/1000</f>
+        <v>0.2006</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f>ABS(input!F239)</f>
+        <v>13.066870880126899</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="3"/>
+        <v>22.632484260322041</v>
+      </c>
+      <c r="C239">
+        <f>ABS(input!J239)/1000</f>
+        <v>0.37889999999999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f>ABS(input!F240)</f>
+        <v>19.110481262206999</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="3"/>
+        <v>33.100324503235527</v>
+      </c>
+      <c r="C240">
+        <f>ABS(input!J240)/1000</f>
+        <v>0.54570000000000007</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>ABS(input!F241)</f>
+        <v>26.133615303039502</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="3"/>
+        <v>45.264749490323936</v>
+      </c>
+      <c r="C241">
+        <f>ABS(input!J241)/1000</f>
+        <v>0.72189999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>ABS(input!F242)</f>
+        <v>31.8770641326904</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
+        <v>55.212694673951297</v>
+      </c>
+      <c r="C242">
+        <f>ABS(input!J242)/1000</f>
+        <v>0.91420000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>ABS(input!F243)</f>
+        <v>38.028489303588799</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="3"/>
+        <v>65.867275608905388</v>
+      </c>
+      <c r="C243">
+        <f>ABS(input!J243)/1000</f>
+        <v>1.1015999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>ABS(input!F244)</f>
+        <v>44.9289249420166</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="3"/>
+        <v>77.819180729021326</v>
+      </c>
+      <c r="C244">
+        <f>ABS(input!J244)/1000</f>
+        <v>1.2785</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>ABS(input!F245)</f>
+        <v>52.737724685668901</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
+        <v>91.344418631157936</v>
+      </c>
+      <c r="C245">
+        <f>ABS(input!J245)/1000</f>
+        <v>1.4572000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f>ABS(input!F246)</f>
+        <v>1.3410612523555701</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
+        <v>2.3227862251417948</v>
+      </c>
+      <c r="C246">
+        <f>ABS(input!J246)/1000</f>
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f>ABS(input!F247)</f>
+        <v>7.5003531932830798</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
+        <v>12.990992805477765</v>
+      </c>
+      <c r="C247">
+        <f>ABS(input!J247)/1000</f>
+        <v>0.18930000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f>ABS(input!F248)</f>
+        <v>13.7072351455688</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
+        <v>23.741627703418935</v>
+      </c>
+      <c r="C248">
+        <f>ABS(input!J248)/1000</f>
+        <v>0.37189999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f>ABS(input!F249)</f>
+        <v>19.0366104125976</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
+        <v>32.97237643851377</v>
+      </c>
+      <c r="C249">
+        <f>ABS(input!J249)/1000</f>
+        <v>0.55349999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f>ABS(input!F250)</f>
+        <v>25.1804286956787</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
+        <v>43.61378185728082</v>
+      </c>
+      <c r="C250">
+        <f>ABS(input!J250)/1000</f>
+        <v>0.73320000000000007</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f>ABS(input!F251)</f>
+        <v>32.328997039794899</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
+        <v>55.995465430668595</v>
+      </c>
+      <c r="C251">
+        <f>ABS(input!J251)/1000</f>
+        <v>0.91520000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>ABS(input!F252)</f>
+        <v>37.4407356262207</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="3"/>
+        <v>64.849256377368391</v>
+      </c>
+      <c r="C252">
+        <f>ABS(input!J252)/1000</f>
+        <v>1.0894000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>ABS(input!F253)</f>
+        <v>45.306520462036097</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="3"/>
+        <v>78.473195354405476</v>
+      </c>
+      <c r="C253">
+        <f>ABS(input!J253)/1000</f>
+        <v>1.2842</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>ABS(input!F254)</f>
+        <v>50.4382507324218</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="3"/>
+        <v>87.361612913452689</v>
+      </c>
+      <c r="C254">
+        <f>ABS(input!J254)/1000</f>
+        <v>1.4445999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>ABS(input!F255)</f>
+        <v>1.74940415620803</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="3"/>
+        <v>3.0300568815244686</v>
+      </c>
+      <c r="C255">
+        <f>ABS(input!J255)/1000</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>ABS(input!F256)</f>
+        <v>7.4173573493957496</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="3"/>
+        <v>12.847239787047855</v>
+      </c>
+      <c r="C256">
+        <f>ABS(input!J256)/1000</f>
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>ABS(input!F257)</f>
+        <v>13.4908762931823</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="3"/>
+        <v>23.366883178418224</v>
+      </c>
+      <c r="C257">
+        <f>ABS(input!J257)/1000</f>
+        <v>0.37330000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f>ABS(input!F258)</f>
+        <v>19.129040718078599</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="3"/>
+        <v>33.132470423765973</v>
+      </c>
+      <c r="C258">
+        <f>ABS(input!J258)/1000</f>
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f>ABS(input!F259)</f>
+        <v>25.4033897399902</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="3"/>
+        <v>43.999961714136951</v>
+      </c>
+      <c r="C259">
+        <f>ABS(input!J259)/1000</f>
+        <v>0.7367999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f>ABS(input!F260)</f>
+        <v>31.3873485565185</v>
+      </c>
+      <c r="B260">
+        <f t="shared" ref="B260:B323" si="4">SQRT(3)*A260</f>
+        <v>54.3644824147637</v>
+      </c>
+      <c r="C260">
+        <f>ABS(input!J260)/1000</f>
+        <v>0.91139999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f>ABS(input!F261)</f>
+        <v>38.539725875854401</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="4"/>
+        <v>66.752763326756764</v>
+      </c>
+      <c r="C261">
+        <f>ABS(input!J261)/1000</f>
+        <v>1.0895999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f>ABS(input!F262)</f>
+        <v>44.915006256103503</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="4"/>
+        <v>77.795072857845241</v>
+      </c>
+      <c r="C262">
+        <f>ABS(input!J262)/1000</f>
+        <v>1.2690999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f>ABS(input!F263)</f>
+        <v>51.7857048034668</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="4"/>
+        <v>89.695471825368159</v>
+      </c>
+      <c r="C263">
+        <f>ABS(input!J263)/1000</f>
+        <v>1.4462999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f>ABS(input!F264)</f>
+        <v>1.51823633909225</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="4"/>
+        <v>2.6296624772051471</v>
+      </c>
+      <c r="C264">
+        <f>ABS(input!J264)/1000</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f>ABS(input!F265)</f>
+        <v>6.90318241119384</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="4"/>
+        <v>11.95666267010356</v>
+      </c>
+      <c r="C265">
+        <f>ABS(input!J265)/1000</f>
+        <v>0.18959999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f>ABS(input!F266)</f>
+        <v>13.2543642997741</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="4"/>
+        <v>22.957232389235823</v>
+      </c>
+      <c r="C266">
+        <f>ABS(input!J266)/1000</f>
+        <v>0.37080000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f>ABS(input!F267)</f>
+        <v>19.241281318664502</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="4"/>
+        <v>33.326876846652802</v>
+      </c>
+      <c r="C267">
+        <f>ABS(input!J267)/1000</f>
+        <v>0.54820000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f>ABS(input!F268)</f>
+        <v>25.199941444396899</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="4"/>
+        <v>43.647578929456067</v>
+      </c>
+      <c r="C268">
+        <f>ABS(input!J268)/1000</f>
+        <v>0.72760000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f>ABS(input!F269)</f>
+        <v>31.5112396240234</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="4"/>
+        <v>54.579068038286131</v>
+      </c>
+      <c r="C269">
+        <f>ABS(input!J269)/1000</f>
+        <v>0.90670000000000006</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f>ABS(input!F270)</f>
+        <v>38.476871109008698</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="4"/>
+        <v>66.643895677082114</v>
+      </c>
+      <c r="C270">
+        <f>ABS(input!J270)/1000</f>
+        <v>1.0880999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f>ABS(input!F271)</f>
+        <v>45.048365020751902</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="4"/>
+        <v>78.026057013850888</v>
+      </c>
+      <c r="C271">
+        <f>ABS(input!J271)/1000</f>
+        <v>1.2645</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f>ABS(input!F272)</f>
+        <v>52.4179363250732</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="4"/>
+        <v>90.790528942937016</v>
+      </c>
+      <c r="C272">
+        <f>ABS(input!J272)/1000</f>
+        <v>1.4437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f>ABS(input!F273)</f>
+        <v>0.81121292114257804</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="4"/>
+        <v>1.4050619951753103</v>
+      </c>
+      <c r="C273">
+        <f>ABS(input!J273)/1000</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f>ABS(input!F274)</f>
+        <v>7.3222807407379102</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="4"/>
+        <v>12.682562270241133</v>
+      </c>
+      <c r="C274">
+        <f>ABS(input!J274)/1000</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f>ABS(input!F275)</f>
+        <v>12.970313453674301</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="4"/>
+        <v>22.465241891858046</v>
+      </c>
+      <c r="C275">
+        <f>ABS(input!J275)/1000</f>
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f>ABS(input!F276)</f>
+        <v>19.846467971801701</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="4"/>
+        <v>34.375090877948992</v>
+      </c>
+      <c r="C276">
+        <f>ABS(input!J276)/1000</f>
+        <v>0.54670000000000007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f>ABS(input!F277)</f>
+        <v>25.023841094970699</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="4"/>
+        <v>43.342564177019256</v>
+      </c>
+      <c r="C277">
+        <f>ABS(input!J277)/1000</f>
+        <v>0.72429999999999994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f>ABS(input!F278)</f>
+        <v>31.352765083312899</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="4"/>
+        <v>54.304582082069402</v>
+      </c>
+      <c r="C278">
+        <f>ABS(input!J278)/1000</f>
+        <v>0.90479999999999994</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f>ABS(input!F279)</f>
+        <v>38.070734786987302</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="4"/>
+        <v>65.940446932541903</v>
+      </c>
+      <c r="C279">
+        <f>ABS(input!J279)/1000</f>
+        <v>1.0827</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f>ABS(input!F280)</f>
+        <v>44.229507446288999</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="4"/>
+        <v>76.607754090718529</v>
+      </c>
+      <c r="C280">
+        <f>ABS(input!J280)/1000</f>
+        <v>1.2619</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f>ABS(input!F281)</f>
+        <v>51.331751251220702</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="4"/>
+        <v>88.909201208601544</v>
+      </c>
+      <c r="C281">
+        <f>ABS(input!J281)/1000</f>
+        <v>1.4398</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f>ABS(input!F282)</f>
+        <v>1.66432875990867</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="4"/>
+        <v>2.8827019726599197</v>
+      </c>
+      <c r="C282">
+        <f>ABS(input!J282)/1000</f>
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f>ABS(input!F283)</f>
+        <v>6.7665925979614201</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="4"/>
+        <v>11.720082173788665</v>
+      </c>
+      <c r="C283">
+        <f>ABS(input!J283)/1000</f>
+        <v>0.18680000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f>ABS(input!F284)</f>
+        <v>12.564974212646399</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="4"/>
+        <v>21.763173732096313</v>
+      </c>
+      <c r="C284">
+        <f>ABS(input!J284)/1000</f>
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f>ABS(input!F285)</f>
+        <v>19.028604316711402</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="4"/>
+        <v>32.958509473668606</v>
+      </c>
+      <c r="C285">
+        <f>ABS(input!J285)/1000</f>
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f>ABS(input!F286)</f>
+        <v>25.169454765319799</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="4"/>
+        <v>43.594774452340481</v>
+      </c>
+      <c r="C286">
+        <f>ABS(input!J286)/1000</f>
+        <v>0.72289999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f>ABS(input!F287)</f>
+        <v>32.052253341674799</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="4"/>
+        <v>55.516131284850076</v>
+      </c>
+      <c r="C287">
+        <f>ABS(input!J287)/1000</f>
+        <v>0.90160000000000007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f>ABS(input!F288)</f>
+        <v>37.5125217437744</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="4"/>
+        <v>64.973593580249513</v>
+      </c>
+      <c r="C288">
+        <f>ABS(input!J288)/1000</f>
+        <v>1.0794999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f>ABS(input!F289)</f>
+        <v>44.422170257568297</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="4"/>
+        <v>76.941455868583333</v>
+      </c>
+      <c r="C289">
+        <f>ABS(input!J289)/1000</f>
+        <v>1.2587999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f>ABS(input!F290)</f>
+        <v>52.2946269989013</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="4"/>
+        <v>90.576950924960201</v>
+      </c>
+      <c r="C290">
+        <f>ABS(input!J290)/1000</f>
+        <v>1.4369000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f>ABS(input!F291)</f>
+        <v>1.39727857112884</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="4"/>
+        <v>2.4201574775223942</v>
+      </c>
+      <c r="C291">
+        <f>ABS(input!J291)/1000</f>
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f>ABS(input!F292)</f>
+        <v>7.1935691356658902</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="4"/>
+        <v>12.459627230732655</v>
+      </c>
+      <c r="C292">
+        <f>ABS(input!J292)/1000</f>
+        <v>0.18569999999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f>ABS(input!F293)</f>
+        <v>13.897497844696</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="4"/>
+        <v>24.071172365092437</v>
+      </c>
+      <c r="C293">
+        <f>ABS(input!J293)/1000</f>
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f>ABS(input!F294)</f>
+        <v>20.143778038024902</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="4"/>
+        <v>34.890047018249241</v>
+      </c>
+      <c r="C294">
+        <f>ABS(input!J294)/1000</f>
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f>ABS(input!F295)</f>
+        <v>25.794964599609301</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="4"/>
+        <v>44.678189265963887</v>
+      </c>
+      <c r="C295">
+        <f>ABS(input!J295)/1000</f>
+        <v>0.72170000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f>ABS(input!F296)</f>
+        <v>31.013414382934499</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="4"/>
+        <v>53.716809427429929</v>
+      </c>
+      <c r="C296">
+        <f>ABS(input!J296)/1000</f>
+        <v>0.89910000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f>ABS(input!F297)</f>
+        <v>36.658886718749997</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="4"/>
+        <v>63.495054345786919</v>
+      </c>
+      <c r="C297">
+        <f>ABS(input!J297)/1000</f>
+        <v>1.0772999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f>ABS(input!F298)</f>
+        <v>45.013622283935497</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="4"/>
+        <v>77.965880828490882</v>
+      </c>
+      <c r="C298">
+        <f>ABS(input!J298)/1000</f>
+        <v>1.2549000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f>ABS(input!F299)</f>
+        <v>53.881972503662098</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="4"/>
+        <v>93.326313988371979</v>
+      </c>
+      <c r="C299">
+        <f>ABS(input!J299)/1000</f>
+        <v>1.4359999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f>ABS(input!F300)</f>
+        <v>1.4044841468334099</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="4"/>
+        <v>2.432637900740493</v>
+      </c>
+      <c r="C300">
+        <f>ABS(input!J300)/1000</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f>ABS(input!F301)</f>
+        <v>6.6630052089691096</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="4"/>
+        <v>11.540663553030582</v>
+      </c>
+      <c r="C301">
+        <f>ABS(input!J301)/1000</f>
+        <v>0.18340000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f>ABS(input!F302)</f>
+        <v>12.716228866577101</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="4"/>
+        <v>22.025154477585534</v>
+      </c>
+      <c r="C302">
+        <f>ABS(input!J302)/1000</f>
+        <v>0.36419999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f>ABS(input!F303)</f>
+        <v>19.656485176086399</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="4"/>
+        <v>34.046031023206112</v>
+      </c>
+      <c r="C303">
+        <f>ABS(input!J303)/1000</f>
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f>ABS(input!F304)</f>
+        <v>25.377957153320299</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="4"/>
+        <v>43.955911181856784</v>
+      </c>
+      <c r="C304">
+        <f>ABS(input!J304)/1000</f>
+        <v>0.71989999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f>ABS(input!F305)</f>
+        <v>31.125648307800201</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="4"/>
+        <v>53.911204287630191</v>
+      </c>
+      <c r="C305">
+        <f>ABS(input!J305)/1000</f>
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f>ABS(input!F306)</f>
+        <v>37.759709548950198</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="4"/>
+        <v>65.401735417825435</v>
+      </c>
+      <c r="C306">
+        <f>ABS(input!J306)/1000</f>
+        <v>1.0752000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f>ABS(input!F307)</f>
+        <v>45.502333831787098</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="4"/>
+        <v>78.812354059615487</v>
+      </c>
+      <c r="C307">
+        <f>ABS(input!J307)/1000</f>
+        <v>1.2549000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f>ABS(input!F308)</f>
+        <v>51.7422058105468</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="4"/>
+        <v>89.620129359552635</v>
+      </c>
+      <c r="C308">
+        <f>ABS(input!J308)/1000</f>
+        <v>1.4335</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <f>ABS(input!F309)</f>
+        <v>0.90785010904073704</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="4"/>
+        <v>1.5724425145155019</v>
+      </c>
+      <c r="C309">
+        <f>ABS(input!J309)/1000</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f>ABS(input!F310)</f>
+        <v>6.8190980911254799</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
+        <v>11.811024355625277</v>
+      </c>
+      <c r="C310">
+        <f>ABS(input!J310)/1000</f>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <f>ABS(input!F311)</f>
+        <v>13.389272022247299</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
+        <v>23.190899418892808</v>
+      </c>
+      <c r="C311">
+        <f>ABS(input!J311)/1000</f>
+        <v>0.36360000000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f>ABS(input!F312)</f>
+        <v>18.965796947479198</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
+        <v>32.849723919068694</v>
+      </c>
+      <c r="C312">
+        <f>ABS(input!J312)/1000</f>
+        <v>0.54149999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f>ABS(input!F313)</f>
+        <v>25.695647239685002</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
+        <v>44.506166552501398</v>
+      </c>
+      <c r="C313">
+        <f>ABS(input!J313)/1000</f>
+        <v>0.71829999999999994</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f>ABS(input!F314)</f>
+        <v>31.1804231643676</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
+        <v>54.006077122182226</v>
+      </c>
+      <c r="C314">
+        <f>ABS(input!J314)/1000</f>
+        <v>0.89539999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f>ABS(input!F315)</f>
+        <v>38.517926788330001</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
+        <v>66.715006199605867</v>
+      </c>
+      <c r="C315">
+        <f>ABS(input!J315)/1000</f>
+        <v>1.0732000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f>ABS(input!F316)</f>
+        <v>45.515603256225504</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
+        <v>78.835337376929999</v>
+      </c>
+      <c r="C316">
+        <f>ABS(input!J316)/1000</f>
+        <v>1.2517</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <f>ABS(input!F317)</f>
+        <v>51.741389846801702</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="4"/>
+        <v>89.618716068888986</v>
+      </c>
+      <c r="C317">
+        <f>ABS(input!J317)/1000</f>
+        <v>1.4295</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f>ABS(input!F318)</f>
+        <v>1.19752286970615</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="4"/>
+        <v>2.0741704535567362</v>
+      </c>
+      <c r="C318">
+        <f>ABS(input!J318)/1000</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <f>ABS(input!F319)</f>
+        <v>7.4564056873321496</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="4"/>
+        <v>12.914873492304819</v>
+      </c>
+      <c r="C319">
+        <f>ABS(input!J319)/1000</f>
+        <v>0.18259999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <f>ABS(input!F320)</f>
+        <v>12.930550956726</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="4"/>
+        <v>22.396371226907785</v>
+      </c>
+      <c r="C320">
+        <f>ABS(input!J320)/1000</f>
+        <v>0.36180000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f>ABS(input!F321)</f>
+        <v>18.977923011779701</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="4"/>
+        <v>32.870726878533013</v>
+      </c>
+      <c r="C321">
+        <f>ABS(input!J321)/1000</f>
+        <v>0.53920000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f>ABS(input!F322)</f>
+        <v>25.127400779724098</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="4"/>
+        <v>43.521934812627961</v>
+      </c>
+      <c r="C322">
+        <f>ABS(input!J322)/1000</f>
+        <v>0.7157</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f>ABS(input!F323)</f>
+        <v>31.772265052795401</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="4"/>
+        <v>55.031177342986688</v>
+      </c>
+      <c r="C323">
+        <f>ABS(input!J323)/1000</f>
+        <v>0.89229999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f>ABS(input!F324)</f>
+        <v>38.7614952087402</v>
+      </c>
+      <c r="B324">
+        <f t="shared" ref="B324:B344" si="5">SQRT(3)*A324</f>
+        <v>67.136879078875623</v>
+      </c>
+      <c r="C324">
+        <f>ABS(input!J324)/1000</f>
+        <v>1.0709000000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f>ABS(input!F325)</f>
+        <v>45.545029449462803</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="5"/>
+        <v>78.886305038690338</v>
+      </c>
+      <c r="C325">
+        <f>ABS(input!J325)/1000</f>
+        <v>1.2492000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f>ABS(input!F326)</f>
+        <v>51.160880279540997</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="5"/>
+        <v>88.613244004113625</v>
+      </c>
+      <c r="C326">
+        <f>ABS(input!J326)/1000</f>
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f>ABS(input!F327)</f>
+        <v>1.10071605592966</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="5"/>
+        <v>1.906496133576997</v>
+      </c>
+      <c r="C327">
+        <f>ABS(input!J327)/1000</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f>ABS(input!F328)</f>
+        <v>7.5765869617462096</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="5"/>
+        <v>13.123033565708347</v>
+      </c>
+      <c r="C328">
+        <f>ABS(input!J328)/1000</f>
+        <v>0.17949999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f>ABS(input!F329)</f>
+        <v>13.2445621490478</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="5"/>
+        <v>22.940254566154426</v>
+      </c>
+      <c r="C329">
+        <f>ABS(input!J329)/1000</f>
+        <v>0.3599</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f>ABS(input!F330)</f>
+        <v>19.454062652587801</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="5"/>
+        <v>33.695424927910231</v>
+      </c>
+      <c r="C330">
+        <f>ABS(input!J330)/1000</f>
+        <v>0.53660000000000008</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f>ABS(input!F331)</f>
+        <v>25.4606521606445</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="5"/>
+        <v>44.099143136074581</v>
+      </c>
+      <c r="C331">
+        <f>ABS(input!J331)/1000</f>
+        <v>0.71460000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f>ABS(input!F332)</f>
+        <v>31.524619865417399</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="5"/>
+        <v>54.602243296198075</v>
+      </c>
+      <c r="C332">
+        <f>ABS(input!J332)/1000</f>
+        <v>0.89360000000000006</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f>ABS(input!F333)</f>
+        <v>37.9541301727294</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="5"/>
+        <v>65.738481816250243</v>
+      </c>
+      <c r="C333">
+        <f>ABS(input!J333)/1000</f>
+        <v>1.0712000000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f>ABS(input!F334)</f>
+        <v>46.064746093750003</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="5"/>
+        <v>79.786480672134971</v>
+      </c>
+      <c r="C334">
+        <f>ABS(input!J334)/1000</f>
+        <v>1.2484999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f>ABS(input!F335)</f>
+        <v>51.495906829833899</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="5"/>
+        <v>89.193527011105459</v>
+      </c>
+      <c r="C335">
+        <f>ABS(input!J335)/1000</f>
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f>ABS(input!F336)</f>
+        <v>1.35781922638416</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="5"/>
+        <v>2.3518118875912322</v>
+      </c>
+      <c r="C336">
+        <f>ABS(input!J336)/1000</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f>ABS(input!F337)</f>
+        <v>6.6616315603256204</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="5"/>
+        <v>11.538284323788311</v>
+      </c>
+      <c r="C337">
+        <f>ABS(input!J337)/1000</f>
+        <v>0.17980000000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f>ABS(input!F338)</f>
+        <v>13.5746785163879</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="5"/>
+        <v>23.512032886797549</v>
+      </c>
+      <c r="C338">
+        <f>ABS(input!J338)/1000</f>
+        <v>0.35860000000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f>ABS(input!F339)</f>
+        <v>19.978421974182101</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="5"/>
+        <v>34.603641914333913</v>
+      </c>
+      <c r="C339">
+        <f>ABS(input!J339)/1000</f>
+        <v>0.53570000000000007</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f>ABS(input!F340)</f>
+        <v>25.0556114196777</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="5"/>
+        <v>43.39759199358474</v>
+      </c>
+      <c r="C340">
+        <f>ABS(input!J340)/1000</f>
+        <v>0.71529999999999994</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f>ABS(input!F341)</f>
+        <v>32.147859573364201</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="5"/>
+        <v>55.681726135656326</v>
+      </c>
+      <c r="C341">
+        <f>ABS(input!J341)/1000</f>
+        <v>0.89329999999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f>ABS(input!F342)</f>
+        <v>38.918215179443301</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="5"/>
+        <v>67.408326030694099</v>
+      </c>
+      <c r="C342">
+        <f>ABS(input!J342)/1000</f>
+        <v>1.0712000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f>ABS(input!F343)</f>
+        <v>46.218023300170898</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="5"/>
+        <v>80.051964581298193</v>
+      </c>
+      <c r="C343">
+        <f>ABS(input!J343)/1000</f>
+        <v>1.2487000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f>ABS(input!F344)</f>
+        <v>51.4881290435791</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="5"/>
+        <v>89.18005549014174</v>
+      </c>
+      <c r="C344">
+        <f>ABS(input!J344)/1000</f>
+        <v>1.4254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>